--- a/seriation-exercises/ex-2_frequency-seriation.xlsx
+++ b/seriation-exercises/ex-2_frequency-seriation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0112360\Documents\____\Sagalassos\__PhD\TA\Archaeology\_class_TMP-II_2023\exercises_excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F25EA85-C312-4E2F-9180-82C1EC92C737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD144751-1C0B-45D6-9EBF-6D5BE4331D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <author>tc={78BC1D11-31A2-40F5-A797-8A23238AFD8A}</author>
   </authors>
   <commentList>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{69DCE9FE-69F7-4326-92F9-815DF055A43C}">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{69DCE9FE-69F7-4326-92F9-815DF055A43C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -50,7 +50,7 @@
     When you have deleted contexts, look for the values in the table at the left.</t>
       </text>
     </comment>
-    <comment ref="J4" authorId="1" shapeId="0" xr:uid="{78BC1D11-31A2-40F5-A797-8A23238AFD8A}">
+    <comment ref="J5" authorId="1" shapeId="0" xr:uid="{78BC1D11-31A2-40F5-A797-8A23238AFD8A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Original data</t>
   </si>
@@ -125,12 +125,15 @@
   <si>
     <t>Transformed data</t>
   </si>
+  <si>
+    <t>Modify only the cells that are highlighted in the same way as this cell. Do not cut cells, you may only copy-paste or type.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +157,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -169,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -259,37 +269,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -323,9 +302,27 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -337,16 +334,51 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -356,9 +388,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -372,9 +401,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -384,10 +410,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -396,96 +428,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -802,10 +765,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="R1" dT="2023-02-22T21:48:21.99" personId="{77C5662B-0A0A-4280-97E5-5F4200B31082}" id="{69DCE9FE-69F7-4326-92F9-815DF055A43C}">
+  <threadedComment ref="R2" dT="2023-02-22T21:48:21.99" personId="{77C5662B-0A0A-4280-97E5-5F4200B31082}" id="{69DCE9FE-69F7-4326-92F9-815DF055A43C}">
     <text>When you have deleted contexts, look for the values in the table at the left.</text>
   </threadedComment>
-  <threadedComment ref="J4" dT="2023-02-22T21:47:38.54" personId="{77C5662B-0A0A-4280-97E5-5F4200B31082}" id="{78BC1D11-31A2-40F5-A797-8A23238AFD8A}">
+  <threadedComment ref="J5" dT="2023-02-22T21:47:38.54" personId="{77C5662B-0A0A-4280-97E5-5F4200B31082}" id="{78BC1D11-31A2-40F5-A797-8A23238AFD8A}">
     <text>FALSE means that you have not included the context at the right in the Contexts' sequence column.</text>
   </threadedComment>
 </ThreadedComments>
@@ -813,1305 +776,1338 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C26801-7A5E-4A8E-B8AA-5A02DD6E3671}">
-  <dimension ref="C1:AA19"/>
+  <dimension ref="C1:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="2.109375" customWidth="1"/>
-    <col min="18" max="18" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-      <c r="K1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="12"/>
-      <c r="R1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="12"/>
+    <row r="1" spans="3:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="22"/>
     </row>
-    <row r="2" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="13"/>
+    <row r="2" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C2" s="13" t="s">
+        <v>0</v>
+      </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="15"/>
-      <c r="K2" s="13"/>
+      <c r="K2" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
       <c r="P2" s="15"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="V2" s="13"/>
+      <c r="R2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="W2" s="14"/>
       <c r="X2" s="14"/>
       <c r="Y2" s="14"/>
       <c r="Z2" s="14"/>
       <c r="AA2" s="15"/>
     </row>
-    <row r="3" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="D3" s="9" t="s">
-        <v>4</v>
-      </c>
+    <row r="3" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="L3" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="H3" s="10"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="W3" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="P3" s="10"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
+      <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="W4" s="2" t="str">
-        <f>S5</f>
-        <v>A</v>
-      </c>
-      <c r="X4" s="2" t="str">
-        <f>S6</f>
-        <v>B</v>
-      </c>
-      <c r="Y4" s="2" t="str">
-        <f>S7</f>
-        <v>C</v>
-      </c>
-      <c r="Z4" s="2" t="str">
-        <f>S8</f>
-        <v>D</v>
-      </c>
-      <c r="AA4" s="2" t="str">
-        <f>S9</f>
-        <v>E</v>
-      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
     </row>
     <row r="5" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="3">
-        <v>3</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J5" t="b">
-        <f>NOT(ISNA(VLOOKUP($K5,$R$5:$R$19,1,FALSE)))</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
-        <f>ROUND(100*D5/SUM($D5:$H5),0)</f>
-        <v>15</v>
-      </c>
-      <c r="M5" s="3">
-        <f>ROUND(100*E5/SUM($D5:$H5),0)</f>
-        <v>20</v>
-      </c>
-      <c r="N5" s="3">
-        <f>ROUND(100*F5/SUM($D5:$H5),0)</f>
-        <v>25</v>
-      </c>
-      <c r="O5" s="3">
-        <f>ROUND(100*G5/SUM($D5:$H5),0)</f>
-        <v>15</v>
-      </c>
-      <c r="P5" s="3">
-        <f>ROUND(100*H5/SUM($D5:$H5),0)</f>
-        <v>25</v>
-      </c>
-      <c r="R5" s="6">
-        <v>1</v>
-      </c>
-      <c r="S5" s="6" t="s">
+      <c r="L5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="4">
-        <f>R5</f>
-        <v>1</v>
-      </c>
-      <c r="W5" s="3" cm="1">
-        <f t="array" ref="W5">INDEX($L$5:$P$19,$V5,MATCH(W$4,$L$4:$P$4,0))</f>
-        <v>15</v>
-      </c>
-      <c r="X5" s="3" cm="1">
-        <f t="array" ref="X5">INDEX($L$5:$P$19,$V5,MATCH(X$4,$L$4:$P$4,0))</f>
-        <v>20</v>
-      </c>
-      <c r="Y5" s="3" cm="1">
-        <f t="array" ref="Y5">INDEX($L$5:$P$19,$V5,MATCH(Y$4,$L$4:$P$4,0))</f>
-        <v>25</v>
-      </c>
-      <c r="Z5" s="3" cm="1">
-        <f t="array" ref="Z5">INDEX($L$5:$P$19,$V5,MATCH(Z$4,$L$4:$P$4,0))</f>
-        <v>15</v>
-      </c>
-      <c r="AA5" s="3" cm="1">
-        <f t="array" ref="AA5">INDEX($L$5:$P$19,$V5,MATCH(AA$4,$L$4:$P$4,0))</f>
-        <v>25</v>
+      <c r="M5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="2" t="str">
+        <f>S6</f>
+        <v>A</v>
+      </c>
+      <c r="X5" s="2" t="str">
+        <f>S7</f>
+        <v>B</v>
+      </c>
+      <c r="Y5" s="2" t="str">
+        <f>S8</f>
+        <v>C</v>
+      </c>
+      <c r="Z5" s="2" t="str">
+        <f>S9</f>
+        <v>D</v>
+      </c>
+      <c r="AA5" s="2" t="str">
+        <f>S10</f>
+        <v>E</v>
       </c>
     </row>
     <row r="6" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C6" s="5">
-        <v>2</v>
+      <c r="C6" s="4">
+        <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J6" t="b">
-        <f t="shared" ref="J6:J19" si="0">NOT(ISNA(VLOOKUP($K6,$R$5:$R$19,1,FALSE)))</f>
-        <v>1</v>
-      </c>
-      <c r="K6" s="3">
-        <v>2</v>
+        <f>NOT(ISNA(VLOOKUP($K6,$R$6:$R$20,1,FALSE)))</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" ref="L6:L19" si="1">ROUND(100*D6/SUM($D6:$H6),0)</f>
-        <v>4</v>
+        <f>ROUND(100*D6/SUM($D6:$H6),0)</f>
+        <v>15</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6:M19" si="2">ROUND(100*E6/SUM($D6:$H6),0)</f>
-        <v>26</v>
+        <f>ROUND(100*E6/SUM($D6:$H6),0)</f>
+        <v>20</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N19" si="3">ROUND(100*F6/SUM($D6:$H6),0)</f>
-        <v>39</v>
+        <f>ROUND(100*F6/SUM($D6:$H6),0)</f>
+        <v>25</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" ref="O6:O19" si="4">ROUND(100*G6/SUM($D6:$H6),0)</f>
-        <v>4</v>
+        <f>ROUND(100*G6/SUM($D6:$H6),0)</f>
+        <v>15</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" ref="P6:P19" si="5">ROUND(100*H6/SUM($D6:$H6),0)</f>
-        <v>26</v>
-      </c>
-      <c r="R6" s="7">
-        <v>2</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="V6" s="4">
-        <f t="shared" ref="V6:V7" si="6">R6</f>
-        <v>2</v>
+        <f>ROUND(100*H6/SUM($D6:$H6),0)</f>
+        <v>25</v>
+      </c>
+      <c r="R6" s="5">
+        <v>1</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="18">
+        <f>R6</f>
+        <v>1</v>
       </c>
       <c r="W6" s="3" cm="1">
-        <f t="array" ref="W6">INDEX($L$5:$P$19,$V6,MATCH(W$4,$L$4:$P$4,0))</f>
-        <v>4</v>
+        <f t="array" ref="W6">INDEX($L$6:$P$20,$V6,MATCH(W$5,$L$5:$P$5,0))</f>
+        <v>15</v>
       </c>
       <c r="X6" s="3" cm="1">
-        <f t="array" ref="X6">INDEX($L$5:$P$19,$V6,MATCH(X$4,$L$4:$P$4,0))</f>
-        <v>26</v>
+        <f t="array" ref="X6">INDEX($L$6:$P$20,$V6,MATCH(X$5,$L$5:$P$5,0))</f>
+        <v>20</v>
       </c>
       <c r="Y6" s="3" cm="1">
-        <f t="array" ref="Y6">INDEX($L$5:$P$19,$V6,MATCH(Y$4,$L$4:$P$4,0))</f>
-        <v>39</v>
+        <f t="array" ref="Y6">INDEX($L$6:$P$20,$V6,MATCH(Y$5,$L$5:$P$5,0))</f>
+        <v>25</v>
       </c>
       <c r="Z6" s="3" cm="1">
-        <f t="array" ref="Z6">INDEX($L$5:$P$19,$V6,MATCH(Z$4,$L$4:$P$4,0))</f>
-        <v>4</v>
+        <f t="array" ref="Z6">INDEX($L$6:$P$20,$V6,MATCH(Z$5,$L$5:$P$5,0))</f>
+        <v>15</v>
       </c>
       <c r="AA6" s="3" cm="1">
-        <f t="array" ref="AA6">INDEX($L$5:$P$19,$V6,MATCH(AA$4,$L$4:$P$4,0))</f>
-        <v>26</v>
+        <f t="array" ref="AA6">INDEX($L$6:$P$20,$V6,MATCH(AA$5,$L$5:$P$5,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C7" s="5">
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>12</v>
+      </c>
+      <c r="J7" t="b">
+        <f t="shared" ref="J7:J20" si="0">NOT(ISNA(VLOOKUP($K7,$R$6:$R$20,1,FALSE)))</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" ref="L7:L20" si="1">ROUND(100*D7/SUM($D7:$H7),0)</f>
+        <v>4</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" ref="M7:M20" si="2">ROUND(100*E7/SUM($D7:$H7),0)</f>
+        <v>26</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" ref="N7:N20" si="3">ROUND(100*F7/SUM($D7:$H7),0)</f>
+        <v>39</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" ref="O7:O20" si="4">ROUND(100*G7/SUM($D7:$H7),0)</f>
+        <v>4</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" ref="P7:P20" si="5">ROUND(100*H7/SUM($D7:$H7),0)</f>
+        <v>26</v>
+      </c>
+      <c r="R7" s="6">
+        <v>2</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" s="18">
+        <f t="shared" ref="V7:V8" si="6">R7</f>
+        <v>2</v>
+      </c>
+      <c r="W7" s="3" cm="1">
+        <f t="array" ref="W7">INDEX($L$6:$P$20,$V7,MATCH(W$5,$L$5:$P$5,0))</f>
+        <v>4</v>
+      </c>
+      <c r="X7" s="3" cm="1">
+        <f t="array" ref="X7">INDEX($L$6:$P$20,$V7,MATCH(X$5,$L$5:$P$5,0))</f>
+        <v>26</v>
+      </c>
+      <c r="Y7" s="3" cm="1">
+        <f t="array" ref="Y7">INDEX($L$6:$P$20,$V7,MATCH(Y$5,$L$5:$P$5,0))</f>
+        <v>39</v>
+      </c>
+      <c r="Z7" s="3" cm="1">
+        <f t="array" ref="Z7">INDEX($L$6:$P$20,$V7,MATCH(Z$5,$L$5:$P$5,0))</f>
+        <v>4</v>
+      </c>
+      <c r="AA7" s="3" cm="1">
+        <f t="array" ref="AA7">INDEX($L$6:$P$20,$V7,MATCH(AA$5,$L$5:$P$5,0))</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C8" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
         <v>17</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="3">
         <v>24</v>
       </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
         <v>18</v>
       </c>
-      <c r="J7" t="b">
+      <c r="J8" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K8" s="4">
         <v>3</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L8" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M8" s="3">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N8" s="3">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O8" s="3">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P8" s="3">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R8" s="6">
         <v>3</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="S8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V8" s="18">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="W7" s="3" cm="1">
-        <f t="array" ref="W7">INDEX($L$5:$P$19,$V7,MATCH(W$4,$L$4:$P$4,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X7" s="3" cm="1">
-        <f t="array" ref="X7">INDEX($L$5:$P$19,$V7,MATCH(X$4,$L$4:$P$4,0))</f>
+      <c r="W8" s="3" cm="1">
+        <f t="array" ref="W8">INDEX($L$6:$P$20,$V8,MATCH(W$5,$L$5:$P$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" cm="1">
+        <f t="array" ref="X8">INDEX($L$6:$P$20,$V8,MATCH(X$5,$L$5:$P$5,0))</f>
         <v>28</v>
       </c>
-      <c r="Y7" s="3" cm="1">
-        <f t="array" ref="Y7">INDEX($L$5:$P$19,$V7,MATCH(Y$4,$L$4:$P$4,0))</f>
+      <c r="Y8" s="3" cm="1">
+        <f t="array" ref="Y8">INDEX($L$6:$P$20,$V8,MATCH(Y$5,$L$5:$P$5,0))</f>
         <v>40</v>
       </c>
-      <c r="Z7" s="3" cm="1">
-        <f t="array" ref="Z7">INDEX($L$5:$P$19,$V7,MATCH(Z$4,$L$4:$P$4,0))</f>
+      <c r="Z8" s="3" cm="1">
+        <f t="array" ref="Z8">INDEX($L$6:$P$20,$V8,MATCH(Z$5,$L$5:$P$5,0))</f>
         <v>2</v>
       </c>
-      <c r="AA7" s="3" cm="1">
-        <f t="array" ref="AA7">INDEX($L$5:$P$19,$V7,MATCH(AA$4,$L$4:$P$4,0))</f>
+      <c r="AA8" s="3" cm="1">
+        <f t="array" ref="AA8">INDEX($L$6:$P$20,$V8,MATCH(AA$5,$L$5:$P$5,0))</f>
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C8" s="5">
+    <row r="9" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C9" s="4">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9" s="3">
         <v>5</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>2</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="3">
         <v>2</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H9" s="3">
         <v>2</v>
       </c>
-      <c r="J8" t="b">
+      <c r="J9" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K9" s="4">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L9" s="3">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M9" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N9" s="3">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O9" s="3">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P9" s="3">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R9" s="6">
         <v>4</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="S9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="4">
-        <f>R8</f>
+      <c r="V9" s="18">
+        <f>R9</f>
         <v>4</v>
       </c>
-      <c r="W8" s="3" cm="1">
-        <f t="array" ref="W8">INDEX($L$5:$P$19,$V8,MATCH(W$4,$L$4:$P$4,0))</f>
+      <c r="W9" s="3" cm="1">
+        <f t="array" ref="W9">INDEX($L$6:$P$20,$V9,MATCH(W$5,$L$5:$P$5,0))</f>
         <v>45</v>
       </c>
-      <c r="X8" s="3" cm="1">
-        <f t="array" ref="X8">INDEX($L$5:$P$19,$V8,MATCH(X$4,$L$4:$P$4,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3" cm="1">
-        <f t="array" ref="Y8">INDEX($L$5:$P$19,$V8,MATCH(Y$4,$L$4:$P$4,0))</f>
+      <c r="X9" s="3" cm="1">
+        <f t="array" ref="X9">INDEX($L$6:$P$20,$V9,MATCH(X$5,$L$5:$P$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3" cm="1">
+        <f t="array" ref="Y9">INDEX($L$6:$P$20,$V9,MATCH(Y$5,$L$5:$P$5,0))</f>
         <v>18</v>
       </c>
-      <c r="Z8" s="3" cm="1">
-        <f t="array" ref="Z8">INDEX($L$5:$P$19,$V8,MATCH(Z$4,$L$4:$P$4,0))</f>
+      <c r="Z9" s="3" cm="1">
+        <f t="array" ref="Z9">INDEX($L$6:$P$20,$V9,MATCH(Z$5,$L$5:$P$5,0))</f>
         <v>18</v>
       </c>
-      <c r="AA8" s="3" cm="1">
-        <f t="array" ref="AA8">INDEX($L$5:$P$19,$V8,MATCH(AA$4,$L$4:$P$4,0))</f>
+      <c r="AA9" s="3" cm="1">
+        <f t="array" ref="AA9">INDEX($L$6:$P$20,$V9,MATCH(AA$5,$L$5:$P$5,0))</f>
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C9" s="5">
+    <row r="10" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C10" s="4">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>9</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="3">
         <v>8</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>11</v>
       </c>
-      <c r="J9" t="b">
+      <c r="J10" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K10" s="4">
         <v>5</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L10" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M10" s="3">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N10" s="3">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O10" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P10" s="3">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R10" s="6">
         <v>5</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="S10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="4">
-        <f>R9</f>
+      <c r="V10" s="18">
+        <f>R10</f>
         <v>5</v>
       </c>
-      <c r="W9" s="3" cm="1">
-        <f t="array" ref="W9">INDEX($L$5:$P$19,$V9,MATCH(W$4,$L$4:$P$4,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X9" s="3" cm="1">
-        <f t="array" ref="X9">INDEX($L$5:$P$19,$V9,MATCH(X$4,$L$4:$P$4,0))</f>
+      <c r="W10" s="3" cm="1">
+        <f t="array" ref="W10">INDEX($L$6:$P$20,$V10,MATCH(W$5,$L$5:$P$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="3" cm="1">
+        <f t="array" ref="X10">INDEX($L$6:$P$20,$V10,MATCH(X$5,$L$5:$P$5,0))</f>
         <v>32</v>
       </c>
-      <c r="Y9" s="3" cm="1">
-        <f t="array" ref="Y9">INDEX($L$5:$P$19,$V9,MATCH(Y$4,$L$4:$P$4,0))</f>
+      <c r="Y10" s="3" cm="1">
+        <f t="array" ref="Y10">INDEX($L$6:$P$20,$V10,MATCH(Y$5,$L$5:$P$5,0))</f>
         <v>29</v>
       </c>
-      <c r="Z9" s="3" cm="1">
-        <f t="array" ref="Z9">INDEX($L$5:$P$19,$V9,MATCH(Z$4,$L$4:$P$4,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3" cm="1">
-        <f t="array" ref="AA9">INDEX($L$5:$P$19,$V9,MATCH(AA$4,$L$4:$P$4,0))</f>
+      <c r="Z10" s="3" cm="1">
+        <f t="array" ref="Z10">INDEX($L$6:$P$20,$V10,MATCH(Z$5,$L$5:$P$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3" cm="1">
+        <f t="array" ref="AA10">INDEX($L$6:$P$20,$V10,MATCH(AA$5,$L$5:$P$5,0))</f>
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C10" s="5">
+    <row r="11" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C11" s="4">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D11" s="3">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" t="b">
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K11" s="4">
         <v>6</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L11" s="3">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M11" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N11" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O11" s="3">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P11" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R11" s="6">
         <v>6</v>
       </c>
-      <c r="V10" s="4">
-        <f>R10</f>
+      <c r="V11" s="18">
+        <f>R11</f>
         <v>6</v>
       </c>
-      <c r="W10" s="3" cm="1">
-        <f t="array" ref="W10">INDEX($L$5:$P$19,$V10,MATCH(W$4,$L$4:$P$4,0))</f>
+      <c r="W11" s="3" cm="1">
+        <f t="array" ref="W11">INDEX($L$6:$P$20,$V11,MATCH(W$5,$L$5:$P$5,0))</f>
         <v>80</v>
       </c>
-      <c r="X10" s="3" cm="1">
-        <f t="array" ref="X10">INDEX($L$5:$P$19,$V10,MATCH(X$4,$L$4:$P$4,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3" cm="1">
-        <f t="array" ref="Y10">INDEX($L$5:$P$19,$V10,MATCH(Y$4,$L$4:$P$4,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3" cm="1">
-        <f t="array" ref="Z10">INDEX($L$5:$P$19,$V10,MATCH(Z$4,$L$4:$P$4,0))</f>
+      <c r="X11" s="3" cm="1">
+        <f t="array" ref="X11">INDEX($L$6:$P$20,$V11,MATCH(X$5,$L$5:$P$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3" cm="1">
+        <f t="array" ref="Y11">INDEX($L$6:$P$20,$V11,MATCH(Y$5,$L$5:$P$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3" cm="1">
+        <f t="array" ref="Z11">INDEX($L$6:$P$20,$V11,MATCH(Z$5,$L$5:$P$5,0))</f>
         <v>20</v>
       </c>
-      <c r="AA10" s="3" cm="1">
-        <f t="array" ref="AA10">INDEX($L$5:$P$19,$V10,MATCH(AA$4,$L$4:$P$4,0))</f>
+      <c r="AA11" s="3" cm="1">
+        <f t="array" ref="AA11">INDEX($L$6:$P$20,$V11,MATCH(AA$5,$L$5:$P$5,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C11" s="5">
+    <row r="12" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C12" s="4">
         <v>7</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="3">
         <v>8</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
         <v>3</v>
       </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" t="b">
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K12" s="4">
         <v>7</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L12" s="3">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M12" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N12" s="3">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O12" s="3">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P12" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R12" s="6">
         <v>7</v>
       </c>
-      <c r="V11" s="4">
-        <f>R11</f>
+      <c r="V12" s="18">
+        <f>R12</f>
         <v>7</v>
       </c>
-      <c r="W11" s="3" cm="1">
-        <f t="array" ref="W11">INDEX($L$5:$P$19,$V11,MATCH(W$4,$L$4:$P$4,0))</f>
+      <c r="W12" s="3" cm="1">
+        <f t="array" ref="W12">INDEX($L$6:$P$20,$V12,MATCH(W$5,$L$5:$P$5,0))</f>
         <v>67</v>
       </c>
-      <c r="X11" s="3" cm="1">
-        <f t="array" ref="X11">INDEX($L$5:$P$19,$V11,MATCH(X$4,$L$4:$P$4,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="3" cm="1">
-        <f t="array" ref="Y11">INDEX($L$5:$P$19,$V11,MATCH(Y$4,$L$4:$P$4,0))</f>
+      <c r="X12" s="3" cm="1">
+        <f t="array" ref="X12">INDEX($L$6:$P$20,$V12,MATCH(X$5,$L$5:$P$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3" cm="1">
+        <f t="array" ref="Y12">INDEX($L$6:$P$20,$V12,MATCH(Y$5,$L$5:$P$5,0))</f>
         <v>8</v>
       </c>
-      <c r="Z11" s="3" cm="1">
-        <f t="array" ref="Z11">INDEX($L$5:$P$19,$V11,MATCH(Z$4,$L$4:$P$4,0))</f>
+      <c r="Z12" s="3" cm="1">
+        <f t="array" ref="Z12">INDEX($L$6:$P$20,$V12,MATCH(Z$5,$L$5:$P$5,0))</f>
         <v>25</v>
       </c>
-      <c r="AA11" s="3" cm="1">
-        <f t="array" ref="AA11">INDEX($L$5:$P$19,$V11,MATCH(AA$4,$L$4:$P$4,0))</f>
+      <c r="AA12" s="3" cm="1">
+        <f t="array" ref="AA12">INDEX($L$6:$P$20,$V12,MATCH(AA$5,$L$5:$P$5,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C12" s="5">
+    <row r="13" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C13" s="4">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="3">
         <v>15</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
         <v>3</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="3">
         <v>5</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K13" s="4">
         <v>8</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L13" s="3">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M13" s="3">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N13" s="3">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O13" s="3">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P13" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R13" s="6">
         <v>8</v>
       </c>
-      <c r="V12" s="4">
-        <f t="shared" ref="V12:V18" si="7">R12</f>
+      <c r="V13" s="18">
+        <f t="shared" ref="V13:V19" si="7">R13</f>
         <v>8</v>
       </c>
-      <c r="W12" s="3" cm="1">
-        <f t="array" ref="W12">INDEX($L$5:$P$19,$V12,MATCH(W$4,$L$4:$P$4,0))</f>
+      <c r="W13" s="3" cm="1">
+        <f t="array" ref="W13">INDEX($L$6:$P$20,$V13,MATCH(W$5,$L$5:$P$5,0))</f>
         <v>63</v>
       </c>
-      <c r="X12" s="3" cm="1">
-        <f t="array" ref="X12">INDEX($L$5:$P$19,$V12,MATCH(X$4,$L$4:$P$4,0))</f>
+      <c r="X13" s="3" cm="1">
+        <f t="array" ref="X13">INDEX($L$6:$P$20,$V13,MATCH(X$5,$L$5:$P$5,0))</f>
         <v>4</v>
       </c>
-      <c r="Y12" s="3" cm="1">
-        <f t="array" ref="Y12">INDEX($L$5:$P$19,$V12,MATCH(Y$4,$L$4:$P$4,0))</f>
+      <c r="Y13" s="3" cm="1">
+        <f t="array" ref="Y13">INDEX($L$6:$P$20,$V13,MATCH(Y$5,$L$5:$P$5,0))</f>
         <v>13</v>
       </c>
-      <c r="Z12" s="3" cm="1">
-        <f t="array" ref="Z12">INDEX($L$5:$P$19,$V12,MATCH(Z$4,$L$4:$P$4,0))</f>
+      <c r="Z13" s="3" cm="1">
+        <f t="array" ref="Z13">INDEX($L$6:$P$20,$V13,MATCH(Z$5,$L$5:$P$5,0))</f>
         <v>21</v>
       </c>
-      <c r="AA12" s="3" cm="1">
-        <f t="array" ref="AA12">INDEX($L$5:$P$19,$V12,MATCH(AA$4,$L$4:$P$4,0))</f>
+      <c r="AA13" s="3" cm="1">
+        <f t="array" ref="AA13">INDEX($L$6:$P$20,$V13,MATCH(AA$5,$L$5:$P$5,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C13" s="5">
+    <row r="14" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C14" s="4">
         <v>9</v>
       </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>8</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F14" s="3">
         <v>3</v>
       </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>32</v>
       </c>
-      <c r="J13" t="b">
+      <c r="J14" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K14" s="4">
         <v>9</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L14" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M14" s="3">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N14" s="3">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O14" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P14" s="3">
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R14" s="6">
         <v>9</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V14" s="18">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="W13" s="3" cm="1">
-        <f t="array" ref="W13">INDEX($L$5:$P$19,$V13,MATCH(W$4,$L$4:$P$4,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X13" s="3" cm="1">
-        <f t="array" ref="X13">INDEX($L$5:$P$19,$V13,MATCH(X$4,$L$4:$P$4,0))</f>
+      <c r="W14" s="3" cm="1">
+        <f t="array" ref="W14">INDEX($L$6:$P$20,$V14,MATCH(W$5,$L$5:$P$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" cm="1">
+        <f t="array" ref="X14">INDEX($L$6:$P$20,$V14,MATCH(X$5,$L$5:$P$5,0))</f>
         <v>19</v>
       </c>
-      <c r="Y13" s="3" cm="1">
-        <f t="array" ref="Y13">INDEX($L$5:$P$19,$V13,MATCH(Y$4,$L$4:$P$4,0))</f>
+      <c r="Y14" s="3" cm="1">
+        <f t="array" ref="Y14">INDEX($L$6:$P$20,$V14,MATCH(Y$5,$L$5:$P$5,0))</f>
         <v>7</v>
       </c>
-      <c r="Z13" s="3" cm="1">
-        <f t="array" ref="Z13">INDEX($L$5:$P$19,$V13,MATCH(Z$4,$L$4:$P$4,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="3" cm="1">
-        <f t="array" ref="AA13">INDEX($L$5:$P$19,$V13,MATCH(AA$4,$L$4:$P$4,0))</f>
+      <c r="Z14" s="3" cm="1">
+        <f t="array" ref="Z14">INDEX($L$6:$P$20,$V14,MATCH(Z$5,$L$5:$P$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" cm="1">
+        <f t="array" ref="AA14">INDEX($L$6:$P$20,$V14,MATCH(AA$5,$L$5:$P$5,0))</f>
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C14" s="5">
+    <row r="15" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C15" s="4">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
         <v>20</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F15" s="3">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>20</v>
       </c>
-      <c r="J14" t="b">
+      <c r="J15" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K15" s="4">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L15" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M15" s="3">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N15" s="3">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O15" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P15" s="3">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R15" s="6">
         <v>10</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V15" s="18">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="W14" s="3" cm="1">
-        <f t="array" ref="W14">INDEX($L$5:$P$19,$V14,MATCH(W$4,$L$4:$P$4,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" cm="1">
-        <f t="array" ref="X14">INDEX($L$5:$P$19,$V14,MATCH(X$4,$L$4:$P$4,0))</f>
+      <c r="W15" s="3" cm="1">
+        <f t="array" ref="W15">INDEX($L$6:$P$20,$V15,MATCH(W$5,$L$5:$P$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="3" cm="1">
+        <f t="array" ref="X15">INDEX($L$6:$P$20,$V15,MATCH(X$5,$L$5:$P$5,0))</f>
         <v>42</v>
       </c>
-      <c r="Y14" s="3" cm="1">
-        <f t="array" ref="Y14">INDEX($L$5:$P$19,$V14,MATCH(Y$4,$L$4:$P$4,0))</f>
+      <c r="Y15" s="3" cm="1">
+        <f t="array" ref="Y15">INDEX($L$6:$P$20,$V15,MATCH(Y$5,$L$5:$P$5,0))</f>
         <v>17</v>
       </c>
-      <c r="Z14" s="3" cm="1">
-        <f t="array" ref="Z14">INDEX($L$5:$P$19,$V14,MATCH(Z$4,$L$4:$P$4,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" cm="1">
-        <f t="array" ref="AA14">INDEX($L$5:$P$19,$V14,MATCH(AA$4,$L$4:$P$4,0))</f>
+      <c r="Z15" s="3" cm="1">
+        <f t="array" ref="Z15">INDEX($L$6:$P$20,$V15,MATCH(Z$5,$L$5:$P$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3" cm="1">
+        <f t="array" ref="AA15">INDEX($L$6:$P$20,$V15,MATCH(AA$5,$L$5:$P$5,0))</f>
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C15" s="5">
+    <row r="16" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C16" s="4">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" t="b">
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K16" s="4">
         <v>11</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L16" s="3">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M16" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N16" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O16" s="3">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P16" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R16" s="6">
         <v>11</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V16" s="18">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="W15" s="3" cm="1">
-        <f t="array" ref="W15">INDEX($L$5:$P$19,$V15,MATCH(W$4,$L$4:$P$4,0))</f>
+      <c r="W16" s="3" cm="1">
+        <f t="array" ref="W16">INDEX($L$6:$P$20,$V16,MATCH(W$5,$L$5:$P$5,0))</f>
         <v>83</v>
       </c>
-      <c r="X15" s="3" cm="1">
-        <f t="array" ref="X15">INDEX($L$5:$P$19,$V15,MATCH(X$4,$L$4:$P$4,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3" cm="1">
-        <f t="array" ref="Y15">INDEX($L$5:$P$19,$V15,MATCH(Y$4,$L$4:$P$4,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3" cm="1">
-        <f t="array" ref="Z15">INDEX($L$5:$P$19,$V15,MATCH(Z$4,$L$4:$P$4,0))</f>
+      <c r="X16" s="3" cm="1">
+        <f t="array" ref="X16">INDEX($L$6:$P$20,$V16,MATCH(X$5,$L$5:$P$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="3" cm="1">
+        <f t="array" ref="Y16">INDEX($L$6:$P$20,$V16,MATCH(Y$5,$L$5:$P$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3" cm="1">
+        <f t="array" ref="Z16">INDEX($L$6:$P$20,$V16,MATCH(Z$5,$L$5:$P$5,0))</f>
         <v>17</v>
       </c>
-      <c r="AA15" s="3" cm="1">
-        <f t="array" ref="AA15">INDEX($L$5:$P$19,$V15,MATCH(AA$4,$L$4:$P$4,0))</f>
+      <c r="AA16" s="3" cm="1">
+        <f t="array" ref="AA16">INDEX($L$6:$P$20,$V16,MATCH(AA$5,$L$5:$P$5,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C16" s="5">
+    <row r="17" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C17" s="4">
         <v>12</v>
       </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>11</v>
       </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>48</v>
       </c>
-      <c r="J16" t="b">
+      <c r="J17" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K17" s="4">
         <v>12</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L17" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M17" s="3">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N17" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O17" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P17" s="3">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R17" s="6">
         <v>12</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V17" s="18">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="W16" s="3" cm="1">
-        <f t="array" ref="W16">INDEX($L$5:$P$19,$V16,MATCH(W$4,$L$4:$P$4,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X16" s="3" cm="1">
-        <f t="array" ref="X16">INDEX($L$5:$P$19,$V16,MATCH(X$4,$L$4:$P$4,0))</f>
+      <c r="W17" s="3" cm="1">
+        <f t="array" ref="W17">INDEX($L$6:$P$20,$V17,MATCH(W$5,$L$5:$P$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="3" cm="1">
+        <f t="array" ref="X17">INDEX($L$6:$P$20,$V17,MATCH(X$5,$L$5:$P$5,0))</f>
         <v>18</v>
       </c>
-      <c r="Y16" s="3" cm="1">
-        <f t="array" ref="Y16">INDEX($L$5:$P$19,$V16,MATCH(Y$4,$L$4:$P$4,0))</f>
+      <c r="Y17" s="3" cm="1">
+        <f t="array" ref="Y17">INDEX($L$6:$P$20,$V17,MATCH(Y$5,$L$5:$P$5,0))</f>
         <v>2</v>
       </c>
-      <c r="Z16" s="3" cm="1">
-        <f t="array" ref="Z16">INDEX($L$5:$P$19,$V16,MATCH(Z$4,$L$4:$P$4,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="3" cm="1">
-        <f t="array" ref="AA16">INDEX($L$5:$P$19,$V16,MATCH(AA$4,$L$4:$P$4,0))</f>
+      <c r="Z17" s="3" cm="1">
+        <f t="array" ref="Z17">INDEX($L$6:$P$20,$V17,MATCH(Z$5,$L$5:$P$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3" cm="1">
+        <f t="array" ref="AA17">INDEX($L$6:$P$20,$V17,MATCH(AA$5,$L$5:$P$5,0))</f>
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C17" s="5">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C18" s="4">
         <v>13</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>12</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F18" s="3">
         <v>4</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>19</v>
       </c>
-      <c r="J17" t="b">
+      <c r="J18" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K18" s="4">
         <v>13</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L18" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M18" s="3">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N18" s="3">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O18" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P18" s="3">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R18" s="6">
         <v>13</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V18" s="18">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="W17" s="3" cm="1">
-        <f t="array" ref="W17">INDEX($L$5:$P$19,$V17,MATCH(W$4,$L$4:$P$4,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X17" s="3" cm="1">
-        <f t="array" ref="X17">INDEX($L$5:$P$19,$V17,MATCH(X$4,$L$4:$P$4,0))</f>
+      <c r="W18" s="3" cm="1">
+        <f t="array" ref="W18">INDEX($L$6:$P$20,$V18,MATCH(W$5,$L$5:$P$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="3" cm="1">
+        <f t="array" ref="X18">INDEX($L$6:$P$20,$V18,MATCH(X$5,$L$5:$P$5,0))</f>
         <v>34</v>
       </c>
-      <c r="Y17" s="3" cm="1">
-        <f t="array" ref="Y17">INDEX($L$5:$P$19,$V17,MATCH(Y$4,$L$4:$P$4,0))</f>
+      <c r="Y18" s="3" cm="1">
+        <f t="array" ref="Y18">INDEX($L$6:$P$20,$V18,MATCH(Y$5,$L$5:$P$5,0))</f>
         <v>11</v>
       </c>
-      <c r="Z17" s="3" cm="1">
-        <f t="array" ref="Z17">INDEX($L$5:$P$19,$V17,MATCH(Z$4,$L$4:$P$4,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="3" cm="1">
-        <f t="array" ref="AA17">INDEX($L$5:$P$19,$V17,MATCH(AA$4,$L$4:$P$4,0))</f>
+      <c r="Z18" s="3" cm="1">
+        <f t="array" ref="Z18">INDEX($L$6:$P$20,$V18,MATCH(Z$5,$L$5:$P$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3" cm="1">
+        <f t="array" ref="AA18">INDEX($L$6:$P$20,$V18,MATCH(AA$5,$L$5:$P$5,0))</f>
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C18" s="5">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C19" s="4">
         <v>14</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
         <v>6</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
         <v>30</v>
       </c>
-      <c r="J18" t="b">
+      <c r="J19" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K19" s="4">
         <v>14</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L19" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M19" s="3">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N19" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O19" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P19" s="3">
         <f t="shared" si="5"/>
         <v>83</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R19" s="6">
         <v>14</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V19" s="18">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="W18" s="3" cm="1">
-        <f t="array" ref="W18">INDEX($L$5:$P$19,$V18,MATCH(W$4,$L$4:$P$4,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X18" s="3" cm="1">
-        <f t="array" ref="X18">INDEX($L$5:$P$19,$V18,MATCH(X$4,$L$4:$P$4,0))</f>
+      <c r="W19" s="3" cm="1">
+        <f t="array" ref="W19">INDEX($L$6:$P$20,$V19,MATCH(W$5,$L$5:$P$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="3" cm="1">
+        <f t="array" ref="X19">INDEX($L$6:$P$20,$V19,MATCH(X$5,$L$5:$P$5,0))</f>
         <v>17</v>
       </c>
-      <c r="Y18" s="3" cm="1">
-        <f t="array" ref="Y18">INDEX($L$5:$P$19,$V18,MATCH(Y$4,$L$4:$P$4,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3" cm="1">
-        <f t="array" ref="Z18">INDEX($L$5:$P$19,$V18,MATCH(Z$4,$L$4:$P$4,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="3" cm="1">
-        <f t="array" ref="AA18">INDEX($L$5:$P$19,$V18,MATCH(AA$4,$L$4:$P$4,0))</f>
+      <c r="Y19" s="3" cm="1">
+        <f t="array" ref="Y19">INDEX($L$6:$P$20,$V19,MATCH(Y$5,$L$5:$P$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="3" cm="1">
+        <f t="array" ref="Z19">INDEX($L$6:$P$20,$V19,MATCH(Z$5,$L$5:$P$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="3" cm="1">
+        <f t="array" ref="AA19">INDEX($L$6:$P$20,$V19,MATCH(AA$5,$L$5:$P$5,0))</f>
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C19" s="5">
+    <row r="20" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C20" s="4">
         <v>15</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D20" s="3">
         <v>2</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="3">
         <v>23</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F20" s="3">
         <v>26</v>
       </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>31</v>
       </c>
-      <c r="J19" t="b">
+      <c r="J20" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K20" s="4">
         <v>15</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L20" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M20" s="3">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N20" s="3">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O20" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P20" s="3">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
-      <c r="R19" s="8">
+      <c r="R20" s="7">
         <v>15</v>
       </c>
-      <c r="V19" s="4">
-        <f>R19</f>
+      <c r="V20" s="18">
+        <f>R20</f>
         <v>15</v>
       </c>
-      <c r="W19" s="3" cm="1">
-        <f t="array" ref="W19">INDEX($L$5:$P$19,$V19,MATCH(W$4,$L$4:$P$4,0))</f>
+      <c r="W20" s="3" cm="1">
+        <f t="array" ref="W20">INDEX($L$6:$P$20,$V20,MATCH(W$5,$L$5:$P$5,0))</f>
         <v>2</v>
       </c>
-      <c r="X19" s="3" cm="1">
-        <f t="array" ref="X19">INDEX($L$5:$P$19,$V19,MATCH(X$4,$L$4:$P$4,0))</f>
+      <c r="X20" s="3" cm="1">
+        <f t="array" ref="X20">INDEX($L$6:$P$20,$V20,MATCH(X$5,$L$5:$P$5,0))</f>
         <v>28</v>
       </c>
-      <c r="Y19" s="3" cm="1">
-        <f t="array" ref="Y19">INDEX($L$5:$P$19,$V19,MATCH(Y$4,$L$4:$P$4,0))</f>
+      <c r="Y20" s="3" cm="1">
+        <f t="array" ref="Y20">INDEX($L$6:$P$20,$V20,MATCH(Y$5,$L$5:$P$5,0))</f>
         <v>32</v>
       </c>
-      <c r="Z19" s="3" cm="1">
-        <f t="array" ref="Z19">INDEX($L$5:$P$19,$V19,MATCH(Z$4,$L$4:$P$4,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="3" cm="1">
-        <f t="array" ref="AA19">INDEX($L$5:$P$19,$V19,MATCH(AA$4,$L$4:$P$4,0))</f>
+      <c r="Z20" s="3" cm="1">
+        <f t="array" ref="Z20">INDEX($L$6:$P$20,$V20,MATCH(Z$5,$L$5:$P$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3" cm="1">
+        <f t="array" ref="AA20">INDEX($L$6:$P$20,$V20,MATCH(AA$5,$L$5:$P$5,0))</f>
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C23:C37">
-    <sortCondition ref="C23:C37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C24:C38">
+    <sortCondition ref="C24:C38"/>
   </sortState>
-  <mergeCells count="8">
-    <mergeCell ref="K1:P2"/>
-    <mergeCell ref="V1:AA2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="W3:AA3"/>
+  <mergeCells count="9">
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="C1:AA1"/>
+    <mergeCell ref="K2:P3"/>
+    <mergeCell ref="V2:AA3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="C2:H3"/>
   </mergeCells>
-  <conditionalFormatting sqref="J5:J19">
-    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
+  <conditionalFormatting sqref="J6:J20">
+    <cfRule type="cellIs" dxfId="2" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:P19">
+  <conditionalFormatting sqref="L6:P20">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2124,7 +2120,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W5:AA19">
+  <conditionalFormatting sqref="W6:AA20">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
